--- a/banhang24/Template/ExportExcel/Report/BaoCaoChietKhau/Temp_BaoCaoHoaHongNhanVien_All.xlsx
+++ b/banhang24/Template/ExportExcel/Report/BaoCaoChietKhau/Temp_BaoCaoHoaHongNhanVien_All.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Dinh Phuong\Source\Workspaces\tfsbanhang24\banhang24vn\banhang24\Template\ExportExcel\Report\BaoCaoChietKhau\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SSOFT\KangJinDemo\KangJinDemo\banhang24\Template\ExportExcel\Report\BaoCaoChietKhau\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -71,7 +71,7 @@
     <t>BÁO CÁO TỔNG HỢP CHIẾT KHẤU NHÂN VIÊN</t>
   </si>
   <si>
-    <t>Hoa hồng thực hiện theo y/cầu</t>
+    <t>Hoa hồng NV hỗ trợ</t>
   </si>
 </sst>
 </file>
@@ -590,7 +590,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Q1"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/banhang24/Template/ExportExcel/Report/BaoCaoChietKhau/Temp_BaoCaoHoaHongNhanVien_All.xlsx
+++ b/banhang24/Template/ExportExcel/Report/BaoCaoChietKhau/Temp_BaoCaoHoaHongNhanVien_All.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SSOFT\KangJinDemo\KangJinDemo\banhang24\Template\ExportExcel\Report\BaoCaoChietKhau\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SSOFT Source Code\KangJinDemo\banhang24\Template\ExportExcel\Report\BaoCaoChietKhau\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -124,7 +124,7 @@
       <charset val="163"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -134,12 +134,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -234,7 +228,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -262,10 +256,6 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -281,12 +271,6 @@
     </xf>
     <xf numFmtId="3" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -587,47 +571,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" style="13" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" style="14" customWidth="1"/>
-    <col min="5" max="6" width="15.42578125" style="14" customWidth="1"/>
-    <col min="7" max="9" width="16.7109375" style="15" customWidth="1"/>
-    <col min="10" max="11" width="17.7109375" style="15" customWidth="1"/>
-    <col min="12" max="15" width="17" style="15" customWidth="1"/>
-    <col min="16" max="16" width="20.140625" style="15" customWidth="1"/>
-    <col min="17" max="17" width="17.28515625" style="16" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" style="12" customWidth="1"/>
+    <col min="5" max="6" width="15.42578125" style="12" customWidth="1"/>
+    <col min="7" max="9" width="16.7109375" style="13" customWidth="1"/>
+    <col min="10" max="11" width="17.7109375" style="13" customWidth="1"/>
+    <col min="12" max="15" width="17" style="13" customWidth="1"/>
+    <col min="16" max="16" width="20.140625" style="13" customWidth="1"/>
+    <col min="17" max="17" width="17.28515625" style="14" customWidth="1"/>
     <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
     </row>
     <row r="2" spans="1:17" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -668,39 +652,39 @@
       <c r="Q3" s="5"/>
     </row>
     <row r="4" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="21" t="s">
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="21" t="s">
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="17" t="s">
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17" s="7" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="6" t="s">
         <v>2</v>
       </c>
@@ -743,7 +727,7 @@
       <c r="P5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="Q5" s="18"/>
+      <c r="Q5" s="16"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
@@ -1201,74 +1185,9 @@
       <c r="P29" s="9"/>
       <c r="Q29" s="10"/>
     </row>
-    <row r="30" spans="1:17" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="19"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="11">
-        <f xml:space="preserve"> SUM(C$6:C29)</f>
-        <v>0</v>
-      </c>
-      <c r="D30" s="11">
-        <f xml:space="preserve"> SUM(D$6:D29)</f>
-        <v>0</v>
-      </c>
-      <c r="E30" s="11">
-        <f xml:space="preserve"> SUM(E$6:E29)</f>
-        <v>0</v>
-      </c>
-      <c r="F30" s="11">
-        <f xml:space="preserve"> SUM(F$6:F29)</f>
-        <v>0</v>
-      </c>
-      <c r="G30" s="11">
-        <f xml:space="preserve"> SUM(G$6:G29)</f>
-        <v>0</v>
-      </c>
-      <c r="H30" s="11">
-        <f xml:space="preserve"> SUM(H$6:H29)</f>
-        <v>0</v>
-      </c>
-      <c r="I30" s="11">
-        <f xml:space="preserve"> SUM(I$6:I29)</f>
-        <v>0</v>
-      </c>
-      <c r="J30" s="11">
-        <f xml:space="preserve"> SUM(J$6:J29)</f>
-        <v>0</v>
-      </c>
-      <c r="K30" s="11">
-        <f xml:space="preserve"> SUM(K$6:K29)</f>
-        <v>0</v>
-      </c>
-      <c r="L30" s="11">
-        <f xml:space="preserve"> SUM(L$6:L29)</f>
-        <v>0</v>
-      </c>
-      <c r="M30" s="11">
-        <f xml:space="preserve"> SUM(M$6:M29)</f>
-        <v>0</v>
-      </c>
-      <c r="N30" s="11">
-        <f xml:space="preserve"> SUM(N$6:N29)</f>
-        <v>0</v>
-      </c>
-      <c r="O30" s="11">
-        <f xml:space="preserve"> SUM(O$6:O29)</f>
-        <v>0</v>
-      </c>
-      <c r="P30" s="11">
-        <f xml:space="preserve"> SUM(P$6:P29)</f>
-        <v>0</v>
-      </c>
-      <c r="Q30" s="11">
-        <f xml:space="preserve"> SUM(Q$6:Q29)</f>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="A30:B30"/>
     <mergeCell ref="H4:K4"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A4:A5"/>
